--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/4_Ağrı_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/4_Ağrı_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20073174-81F7-4891-A2D3-4BE071A3A27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E17930E9-D434-4EBE-8F79-96E8D26EBFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{C46EDBEC-262B-4A28-8122-FE1F395999BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="662" xr2:uid="{1834C750-603B-4A87-BD0A-4FA9CDDFD4C1}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -947,15 +947,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{5CF0831E-71A4-460F-B329-7AB2D28600A2}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{22103ADA-9FAC-4C70-8346-2BE35FD24F4E}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{CC81FC2B-8843-4AF9-9148-A1AED540B098}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{949897E2-9D58-40E8-AB34-03B0AF93A14C}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{EBAEEF4C-12A3-4632-AF3C-F648FFD4252B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{CA3105BC-8167-42A9-B19F-57A034C97481}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{C67A2E39-F145-4D63-B101-880A13A36341}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{B6BBFAAC-A7AE-44CC-AA02-A1C96BF90946}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{A223DF02-C432-4C2D-BF8A-CAB35E9D2A5A}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{06498248-101C-47F4-BF86-30121A581D18}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1D59E1F3-A55B-4553-8E73-DD9AF0A776E2}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{38B556B6-CC32-46E2-8DFF-2A5DFEB8C25F}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{C63278AF-824B-40D0-8195-F73176A3E494}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{F59A2EB8-8FD7-432E-8132-AC6F6E31481E}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{416C476F-4970-4806-ACD5-AFEA3A885003}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{65D413B2-70B0-4457-A05A-9491D9348FB8}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{7739CABF-F9C1-409A-BEE2-8DA8647C8C6A}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{09169229-79DA-4966-BBFA-16DC39502F3F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1325,7 +1325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D974F67B-7139-4532-8F44-EB143FA610AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC7EDDB-2BD7-43C8-BFE7-1053D3BB1A99}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2633,18 +2633,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8CD2E67B-1A33-45A0-866A-CE5752763B20}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3B84AB67-F7CC-42EC-859D-1596E19560B3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5FD251DD-650A-4FA2-874D-810504CF64CF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{21C17D91-9AF2-4AC5-B493-BD2195C1AC14}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{25B48D89-C19C-4A24-9C17-6F47D23E5B71}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BB4F253F-0DC6-4662-89E3-A669718F896A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BBECBC8C-2FFA-43FA-9346-488D635C9AD0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4711AB25-B4B1-4205-ABFD-0DB7948E4267}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FE15D5DE-8A8E-41EA-AD53-71C54A0F331E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8AFDA48E-2925-45AE-96CF-7D2F124382C4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D46B5822-4428-447C-8EC4-1D97098382B6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{362BFDBD-0B0D-42CC-AE78-F4AE1A69254E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1EE74EA7-E094-4BBF-A8CB-3C3DF24414BE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{27894D66-4A55-4174-8B33-9B6AA60622F1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EFAD3A1F-9477-43F5-92EB-3C1102DEB09C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C22BC7E8-4B0A-46BC-A0F2-1BD79205608B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{34D376C5-C47B-4329-9B5F-C27AABD939F4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9C5BB19D-0461-4EBA-B6FD-BCC04C3497CD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8385F1BF-0FF3-4E72-BCF2-9FE509FF7D5B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84C2E72C-E2F2-4061-A97A-63368F8D2B03}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F39D9432-6A88-47A8-B8D1-BA04F91C60A7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1D7E870D-B7F6-4F72-998A-880EAA805724}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4256DE34-B384-42A1-9298-5D238E9ACF27}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3212AE46-7EA7-416B-A199-18CA10F0ED56}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2657,7 +2657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C43661-6AB3-4213-83FE-D8D2ED1B8BB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B037E69-7CD7-4403-A2F9-391C7B8B2114}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3945,18 +3945,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B05A6E22-82CA-45DC-A038-6AF5005BC493}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D547B737-16D3-47B9-A257-E2BEFE183968}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{953F675B-3639-42C1-982A-00AD963CC71C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E8CDFED5-F662-40E9-AE31-88822438871F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6398796E-75F7-4FA4-8CB1-55B951E6D44D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C2AFA8A5-FB4A-430C-B119-5255E0E2E154}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B6286383-A8CD-4DF9-9C33-0050D50A655D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EA912704-BB3B-4F87-BFC0-B25C039AD9E1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6837FF5B-246B-475B-B787-AEC0D0A1D435}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EBD74276-BEE9-4DC2-9583-482A869A28CB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{75116649-54E4-493B-89D5-5E4326506094}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D8ABC7F7-F244-4FF1-ACBF-7B8B7F68B0AD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41481813-EABF-4024-ACB9-B5AFD8CC4DDC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DA030470-54A0-4282-B8F8-7960E54B03D1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36418D52-AB4C-4615-9EC0-0650734329CD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C0605B2A-6587-40DA-A6AF-9542BA5796E5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{20894BA9-C9E2-4B3F-8C3B-C3F49435BCEB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{66A84AEE-4477-4C0A-9A65-6AA844AD92A7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{945D4F49-FF44-43EE-91E1-6BC5784716E6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A9DF8959-7BCF-42AB-B919-3189EED7D089}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2B9D8C13-5B30-4A69-B027-9C1E98AC4AD0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AB1D5126-8621-43D2-95CB-D9E1B6584E2C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7EF757BA-0E84-4362-9C83-F0CC20B01C36}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D6AE3058-C607-42D9-8804-64E7F0BDAC04}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3969,7 +3969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C71F0D6-1C51-4AAC-B81E-63361CD8611C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58035819-500C-4437-A46A-056EE5315DBE}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5257,17 +5257,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C7135277-F54D-442A-9D5C-B85327911CE9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E2DDF036-E63E-4307-8EB8-B2BDB0458C5A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8E7F00A2-2BD5-4110-B075-3198CBE0CEA3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B3236A1E-C0B7-4D5B-B5B9-000721744185}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C98D85BD-66D7-43F4-ABBD-DF7BD1FF8A93}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2FE0F12B-1737-4B32-9B91-83420C32CF1C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BD5E3996-DAFB-4C9D-8277-26CB76ECA7F4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7F97608D-2CA8-4618-9A79-0620F6C38DDC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{184B885B-00B1-436C-B536-37B8710A7D1E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55D24510-FEE6-417C-9F88-093B145877F2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{13773F17-875E-41E1-BEE9-8A62DAAADE95}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6D0BC639-226B-46ED-8996-867955860D19}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D0395D16-13EE-4E11-8F2C-ACE84A7B6AC8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4F978AF4-E0B0-4B82-A540-142369675AB1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5C9C4124-A6F4-498E-9CF0-1CAF28223FDD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{403509E4-E789-4E66-9CB5-93CD37ED8BD8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{061D29DC-F467-4981-9B2C-9E6171AB421F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0100A11E-7294-4E55-BFA5-400500955212}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D6B9B0D-B0C2-411D-A20D-789BF65A2798}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EA7CF5CF-4892-4E9E-ABC3-D33CB2E39EEE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ED605D9C-2BBB-4715-BDA3-CFF104F5AA3B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5CA72D52-A70F-4CAC-82F5-59DDD4177632}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5280,7 +5280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3447D2-A8D8-429D-B70D-20275702EF91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CAA820-4E13-4FB6-9A71-79DE217B6A24}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6552,18 +6552,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC46E60A-A528-4D86-8972-B87D1A5505A2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{464A3F4D-3711-466C-AA60-C959CD833CE1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6F6E04EF-4052-4443-9A9C-EA7F2A666D51}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4920F563-AFC4-4FDC-97AF-403014294B88}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A8CADBF1-5EE6-498A-A5FF-95E8CDEF240B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD9DF804-B319-4C0A-927E-94951CDCDC7E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F0C09CE1-0811-45F0-B479-51FAC7A7EB1C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FBDE2ADA-611B-49C2-A0AC-D96844819D1F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{25D5D5F1-A672-413C-8BD5-25D4DB0E3B2C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1D5A1B51-673D-49E0-A077-D72E597A81A9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC0CB3D6-F01E-4198-AB37-EAEF4758DBF9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{28D4536E-23BF-40DA-87AF-325D91F7176E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A8CB6933-E317-4053-9FC2-BC31A07A02E9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A35014F9-7A6F-453B-A403-D9000B60EE70}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{25CA4D1D-E377-46EB-9C97-9188E83D2707}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{46AF4D89-5693-46B0-B055-5FEFCBDC90F2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F41938AE-9AFE-41CE-93E0-23923A069686}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6B02CEF0-F140-42A4-B4A7-249479A86128}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DCC26229-A245-4CD4-9C04-2602A992A6F1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F68296C6-3D9C-40E7-A209-4C625BF5CF5F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D232333-EC9A-4296-9BF5-96A9777A3CED}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1B1AA769-4188-4CDD-B8DC-9B887B78D7E1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4C8EEE0D-6155-4EEB-B303-433F27BEAF13}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B1C354CF-B531-4072-9ECA-1C35ED14B81C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6576,7 +6576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF5407D9-C1F9-4F98-8113-3B93D5330148}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580BFC07-F583-42E6-B0FD-8BB034C31C95}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7884,18 +7884,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{08B2C8E2-DAA8-4DCE-9C4A-690DB5FBB866}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BE7F2FC9-9F05-453F-82A8-0E31F0116D56}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D522D1E6-EE54-45DA-9A7C-69B0F28F144F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7464BB28-9CE1-4AF2-856E-4AE53B7AEFD0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9BD58834-7EAE-400D-8D50-C49B26AEFA20}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3C195934-9101-4723-B2C8-C9E75FE37275}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{43F2BFE7-9978-4672-8C32-58854EBEBE93}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EBC7201B-CCCA-42AD-B925-01F3318546F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{878C24C7-7533-465A-BB49-5320DC2BEC7A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{019B682F-B799-447D-8736-6615531337E3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24925E5D-5C96-498B-BF42-A485DEEA3DA6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EEB42A2C-4943-49CE-AA55-254F6442C4C3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2701A546-F3CC-44A5-A486-DB1269B1BF29}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{264E8EEC-7CFD-44BC-8847-9D5F89D1A4D3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C2936F3B-B419-46AD-B563-B91081C32648}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{703EA799-E9E8-42F8-8685-B3A25A385003}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C817B6FA-95D9-4807-9DCA-1E88D96FA002}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B09B79DF-E2ED-42E6-A1E9-45A79262E7EE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14EB256C-D3E2-42F8-9670-79CA91545BE7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FCA1A812-CFFD-4A12-ADAF-C365B32BBF4F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{97E4C54D-FF19-4AB5-9318-3EEEDE75B659}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EE771463-FF63-480C-BB40-D1243327959A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{45E235D3-533C-42AC-B0AA-2D6FFA378410}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B01E7D87-A50C-4214-A954-ECE010DB4BD0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7908,7 +7908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86774250-995F-47FA-83FA-DCDC78898316}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF1FD43-1658-4938-ABFB-1966AB37C6C9}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -9212,18 +9212,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{689DCD80-E67F-41F1-ACB5-EA24D6A42AEC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0C4E213A-8737-4EF2-AFDA-380CA6578901}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{05F9849D-28C6-4926-9B04-9CDA2080441F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8D548573-9C59-45EE-A86A-293052C14614}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A46B86DF-8FEE-4074-8598-B72761FD3AA2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{97D6C447-3E02-4999-877B-FE6029D11AE6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{90FEA689-F810-4F3B-B587-9190E6E619C7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{446ABF46-2D34-461F-9A51-46FAFF259C90}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A211D681-DBAA-4383-B827-9E2CF1A0CF6B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E262B567-6863-43E8-8165-FBD2CA406761}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D912ECCE-673D-42BC-B3EC-B05FA84A1FBC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C6681C18-42F8-48BF-A55C-D1F4F3E06751}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DBF61170-84B1-431F-88E9-B8D009D57648}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{14E0FA6A-B6DE-4607-979C-6654087DFA45}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{68412EDC-5C28-4FB7-8089-B996B812E470}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BCC7BF4F-CD2C-4FDC-A6B2-3A8EDD965196}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E100929-DF19-4078-98BA-9B798D76F36D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{431BE63A-93FE-4421-8ED3-C8F86DF97759}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5437A1A1-7B87-49CD-893C-18E769B76E6A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{455B165C-F72D-480D-97AD-D705357EB42B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{04230A5C-3DB2-4AED-BE73-3B1E61899CB9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{21646F93-4122-44BA-A16F-64DB13E5A114}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1CC86968-6F55-4782-A96E-80840B67BFBD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8122B352-93F9-4119-B220-C30DCD625101}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9236,7 +9236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0044EC9A-9897-48AC-8E08-EC9D3479B55F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77BF1E0-84F1-4FF5-A7D4-051470D77390}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10536,18 +10536,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{250EFCCD-027E-4995-8AA1-120026D30138}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BF28B964-7BAF-40BF-AA9A-651F285D554B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{60E5D39F-8EC7-4CDA-91F9-6BAB0782B703}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B4C39FD0-F21C-4023-AD48-1C6782017962}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{19FDF275-1414-44C9-93CA-D63F60D7157D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{23964ADF-630C-43E6-AED8-1D0416F3A2F1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7C975634-34DB-4EA8-8BFC-0EE12AD974D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5ADF29BE-8FD9-477C-96AA-91A60E95FB88}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9019403B-C8CE-41EE-BFC6-109BF580D17A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FECD99EC-E040-43CD-9BF4-B30398F2A254}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC0508C7-B18D-4E15-9E62-793220974630}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E069E12C-54B4-4246-8C1A-ACD78DF58D3B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C26DD9D7-4297-4051-93FC-B6E6DD25B91B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5E1A66A7-E60B-4410-AC31-35309145D18D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E9916C5C-78C6-4ED1-BBFA-42F669827BE5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{20826EFD-6E75-4035-9AFB-EAA40D026C2C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{359BCA18-2919-48AE-8BE2-CBA17B69EF2A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FFDF8D58-E370-462B-A818-C89B57A2A7BE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5193E71D-0892-447F-B094-2316582B5F15}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{19F9CC02-81DC-4AA3-B5BE-35F7E74F0AFC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6FDA1BFA-8948-4BDB-9C20-CA5FC3B6AC49}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3421EFF6-D9A3-4AAA-8A95-A6D390D1482D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5EFEAAC0-32E0-44AB-A905-E5B75AB43FF2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5B8F27D5-59AA-460B-B23E-D258CA8F1D18}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10560,7 +10560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40955960-0FB8-47F2-A7BA-8516F86BE55B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894177D0-5F5C-4371-8A3C-0DE3AC74C8CA}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11860,18 +11860,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9EC6EDD9-8A02-4C3E-A61B-A4A9987C6325}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C883F2FC-A847-4BF9-AD00-7F4A36756D9C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3811164-B61D-47CE-ADAE-D7B220B255D7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1352FB21-429F-4E1D-8D72-28FF9B0DDEC2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A513DD03-3C91-45C9-A4C3-BEE276208BA3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A8A077A5-6F71-47EE-8515-958F4885E4FD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9AD3D98-FE80-4031-8FF7-1470CE3B5AA9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6C88C5F5-CBB0-47AA-ACDD-000941DAB798}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{10F8A24A-65D2-4F3A-9AFC-7F34AB3B1D12}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C23B1982-6E62-4766-A7E5-FDA7D94C2827}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5F9DF1CD-C378-44D4-A13F-E25D6745E3B5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BDEB07BE-B3B0-4D3E-A762-C7F329E4770D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{65CD75E3-398F-4370-8C77-8CEBDA2FDAA1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{676F4644-5CD0-40DB-A17A-BCB344DE9B89}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E105DFC5-9D8A-4F7E-BB80-3C58764712A2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0269F0F0-B09D-4082-AFDF-B5FCB431DDDB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{96625989-87C2-46ED-AD6F-12224491A239}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{32FF6DE3-FB57-424A-8303-2D396C689619}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58DD7DC4-C04E-4F37-8CFE-13E3698241A5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B37BE253-2ACD-4440-85D8-277631B413FE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B5440FA8-9E89-413D-BDF0-A805025693B7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BDF37990-0632-4C64-BD77-C6FE5F2E5259}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2835CED6-E56D-431B-BFA7-63DCC9790FDE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{174920E2-6AE8-44DC-9B72-0C52366FBA30}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11884,7 +11884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5D91C3-63C0-4AB5-97B7-EFC6030A96C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519B02E2-097B-4049-8A41-AD9F9F08AB40}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13172,18 +13172,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B2E7F11-80BE-4972-8E43-D5E5CAC8BBF2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BCE20280-E43C-4A14-844D-6822CD979F58}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{76587C45-E73A-49AD-9E9E-9077EE44A507}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{92D4E8CF-EB5C-457E-86DE-C29A71F49C41}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{072452E0-ED2F-4F25-A54C-E13E422E3D21}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{086E23A3-A25D-48E8-AF88-BAB452B57153}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A9B49993-70B8-4BD9-9487-550B574B08FD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7EBCF0A5-8CB8-45B1-86D2-E3C454A069DC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3C2E261C-8B24-48F1-AECE-95DBFB4507D6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AB3FD317-8AB7-47C8-8FA4-2B1C64105FCF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{393A7829-C2E1-48AC-BD92-2EE49C90B8D6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{07F3E3ED-E1F6-47D6-967D-FBC39DD27723}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{08400BEC-F19A-44EB-A252-59FE9429B7AD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{66900C5D-5211-498E-A579-BE86B48868F4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1B9CFC3E-202E-4B6C-B113-6B70FD23E051}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2183FE0B-A4D4-40F9-B822-EDC374F3F0FE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{261B4E32-97BD-432E-8614-53BE405F8FF3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{62759725-F64A-4873-879A-7AC1A84AD1B8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{33D21884-FB04-4482-83A5-5BEEF62131EC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A853DC1-251B-43F0-8CCB-6BC31F36592D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AD83EBC3-C090-452C-B286-61612ECE2CE0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{436ADE8F-2403-4B9D-B150-6EDE48193F7C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31E0D9F5-4A63-4AE1-9067-DB9799A21DD4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3407E08D-173C-4AED-B538-C329A9EB0B13}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13196,7 +13196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CF1444-080A-4F56-A319-6DB1421E6749}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61750DAC-BF62-4D57-B1F5-4964B2F25F14}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14484,18 +14484,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0DB9E493-F1C0-4B97-8A4D-312072A5D36A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6E0A6150-8DD5-4394-8987-6C11DBE06D36}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EBD45568-C5AC-4DB1-A868-75E2DAECFED2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D782CD8A-7306-4E27-8422-9064F22343EF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B73CD1B8-F4EE-4549-89A9-F8EC053243F4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C2376CA7-B160-4822-A5DF-B57A2684732E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1A7F2FD3-7709-4B12-A0A9-7B7F5A6955F4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81D3608B-7EE8-4E14-AF34-343D4810EC4A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{25DACF71-205C-4573-A5D5-E5253F2EBA9B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D26E764C-930A-4D3C-8AAA-2637E3A64A0C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CF479BCE-BA75-477B-87A2-A3D370AB3996}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DF696750-F697-4BE6-AC53-201B46124FAB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E2FB6DC-81AF-45E8-8911-0B2B14409FFA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B11B61A5-4683-491E-B611-735723A539F6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F62E75CE-7CC5-4FEA-85B2-099B45E2D43E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{01403AF5-2FD7-4B5C-A674-5A182692D19F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B63342AC-2867-4279-8094-47201414268F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{58A40C69-4E13-4BDE-B6EE-A108FCF9E874}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A1BEFA60-9B5F-4271-9A78-F73B8C0165E0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B990F6EF-AD64-4384-A33C-62D1BF9F780A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{89C66D2A-19F3-4174-9EF6-48FC6B30FF6C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F2F5E6DD-0BB4-4813-9192-E5E32E81B6D4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F1B0635D-6FBF-49BD-95C7-B88265E4B508}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FF6F5074-ABC9-4585-BCA2-B5F1C23624EE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14508,7 +14508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC1B1BF-75E7-4FE1-A50C-58CA6B546CF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3511BF09-CA8A-4751-9D6E-FE0F5A9735F5}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15796,18 +15796,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6FC5AAC5-CD64-4EC2-B007-3E5335C8E92C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{54AF5ABC-3849-4388-8FFD-0C21BA8D4707}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1614CF7F-70AA-4D93-8208-1EDD55C7BD9E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2EBACF4B-D067-4EFE-9423-AC4252571894}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9AADA6B1-633E-4D40-952F-763060523376}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E54351F5-E5B7-4331-8363-092BB269B972}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EFD88B4F-478C-41C1-89EA-0A85B8703C0F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7DB3BB31-F2EA-456C-8C56-3AAACD35CA61}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1C764C0C-985D-41EC-A1FE-F08FA5EEA72E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D4666DA8-97E7-42A7-BE0B-D589070A4A18}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{98D8DF2B-528F-4D88-8898-E83C13B1801D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E82110E5-EE99-41C0-846C-F6A830DA16DB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8AECE86F-58FE-44C0-ADC1-B9E5CA99B15E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{07681280-081F-4E75-A9EF-A1B009454FC2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3CF76057-B439-49D5-B75D-60C492D806A0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C61F551B-EE7A-4B69-B82B-83F3373EB305}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1B2EF2FB-DFB6-4156-81EC-22E2775A2AA8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5D203D42-CD33-4018-9666-08723703A92A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{49DBD3CE-EC46-4F3A-97E1-AD15752C2EDF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF931EF9-2AE2-4B02-98D4-379F9132C2F7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F8E24BFE-2F1F-40E6-995B-C0F9B36BCF2C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D41837A7-B68F-42EB-8055-DCA472EB5613}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7A54A9A7-0747-402D-8DEA-B2A1D0A396AD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2C5203C3-03F9-4DCC-8988-1B9223DE2D99}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15820,7 +15820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565D6039-0A78-4DAE-9544-DC2CC564ECF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9007E4C5-CE87-41A4-B723-C5A76371A7D0}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -17108,18 +17108,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{586E9AA4-CCFC-4C40-B022-EF8D4B440645}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BFC67AD4-DEB2-4B79-9C4D-4ECD79F30E02}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E86DC10B-01F9-43EE-99F2-73E6F4E083D9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ADDF09CD-5C93-46A2-8A49-A5796A6B251B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{38CB74B0-76E9-4281-B393-AEE210EC1C49}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7CBA82D7-B8AA-49A4-97CD-4A86CD729FA6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0ED7EF5E-C104-4180-9E42-C92E2DF00E11}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E62F6272-378C-4250-A208-92BFC4C361D4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BEC592B4-ADFC-44E5-98F9-F0CB13A93F42}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EDB4E166-72D3-4A36-8344-011BF33E3346}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C037C5D5-01EE-4BE1-B12B-6952E33066F8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E2DBB2B2-FE70-40D9-9BCB-317E287613D7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E75DD88-A86E-4DAE-AE8E-522AB0F9F8EE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F1E65FE9-1238-44F5-ABE4-80A2BED5D394}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0FBB2155-D2F5-42CE-87FF-BA4AA1FBF78D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0CA34CC2-5836-4E73-83DD-DA27F892DCCA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D958FFA5-262D-4A90-8586-0DE0422259CC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{21003EB4-52EC-46A0-9268-AF23C665E8E4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62E7FCFF-C9C6-41FD-8A89-9E1CE7B9F69D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3EF6FD58-E5AB-4636-8336-F0F1AD1D9695}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E8AA383E-7F5B-4FC1-8783-F2A2217A7877}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D1F3423C-8213-4CB6-A143-9330577A41B4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C8E42AD9-7EEE-4B2C-A684-0757C3B17675}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D8D0312A-DA54-43A8-B77A-10461BA74D97}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
